--- a/biology/Zoologie/Walter_Lawry_Buller/Walter_Lawry_Buller.xlsx
+++ b/biology/Zoologie/Walter_Lawry_Buller/Walter_Lawry_Buller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Lawry Buller est un naturaliste et un juriste britannique, né le 9 octobre 1838 à Pakanae (Hokianga, Nouvelle-Zélande) et mort le 19 juillet 1906 à Fleet dans le Hampshire.
 Ses parents, d’un milieu modeste, émigrent en Australie en 1835. Son père devient alors missionnaire au sein de la mission Wesleyan et passe quinze ans à Sydney. Puis, il servira à Wellington, Christchurch, Auckland et à Thames. Il devient président, en 1864, de la conférence australasienne de sa mission.
@@ -515,7 +527,9 @@
           <t>L’histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès sa jeunesse, Buller se passionne pour l’histoire naturelle et particulièrement l’ornithologie. Il entreprend de réaliser une collection et décrit les spécimens qu’il découvre. Buller se met en relation avec George Grey (1812-1898), Thomas Ralph et James Hector (1834-1907). Il est admis à 19 ans à la Linnean Society of London.
 En 1871, il commence à assembler des matériaux pour réaliser une monographie sur les oiseaux de Nouvelle-Zélande. Il obtient du gouvernement une bourse et un congé en conservant un demi-salaire et part à Londres pour la faire éditer. Pour compléter ses revenus, il est secrétaire d’Isaac Earl Featherston (1813-1876). Son séjour à Londres est couronné de succès et il peut démissionner de son emploi de juriste.
@@ -550,7 +564,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barbara Mearns &amp; Richard Mearns (1998). The Bird Collectors. Academic Press (Londres) : xvii + 472 p.  (ISBN 0-12-487440-1)</t>
         </is>
